--- a/results/mod2.corrupt_salience.eff.CAM.contrast.xlsx
+++ b/results/mod2.corrupt_salience.eff.CAM.contrast.xlsx
@@ -416,25 +416,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.411208671150511</v>
+        <v>-0.411213205348491</v>
       </c>
       <c r="C2" t="n">
-        <v>0.136040851922463</v>
+        <v>0.136039181152004</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.677843841344685</v>
+        <v>-0.677845100892738</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.144573500956338</v>
+        <v>-0.144581309804244</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.02268521065189</v>
+        <v>-3.02275566396582</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00250542714904111</v>
+        <v>0.00250484396968426</v>
       </c>
     </row>
     <row r="3">
@@ -442,25 +442,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0175968001134941</v>
+        <v>0.0175958749916095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0540104419087153</v>
+        <v>0.0540103133452036</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0882617208166806</v>
+        <v>-0.0882623939587127</v>
       </c>
       <c r="F3" t="n">
-        <v>0.123455321043669</v>
+        <v>0.123454143941932</v>
       </c>
       <c r="G3" t="n">
-        <v>0.325803668543113</v>
+        <v>0.325787315454857</v>
       </c>
       <c r="H3" t="n">
-        <v>0.744572902956819</v>
+        <v>0.744585276419337</v>
       </c>
     </row>
     <row r="4">
@@ -468,25 +468,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0523452048280118</v>
+        <v>0.0523446155884898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0398887325984384</v>
+        <v>0.0398886511830419</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0258352744538762</v>
+        <v>-0.0258357041221534</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1305256841099</v>
+        <v>0.130524935299133</v>
       </c>
       <c r="G4" t="n">
-        <v>1.31228047165532</v>
+        <v>1.31226837799778</v>
       </c>
       <c r="H4" t="n">
-        <v>0.189425518673166</v>
+        <v>0.189429597697024</v>
       </c>
     </row>
     <row r="5">
@@ -494,25 +494,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428805471264005</v>
+        <v>0.428809080340101</v>
       </c>
       <c r="C5" t="n">
-        <v>0.136915930335538</v>
+        <v>0.136914343520746</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>0.160455178896556</v>
+        <v>0.160461898072494</v>
       </c>
       <c r="F5" t="n">
-        <v>0.697155763631455</v>
+        <v>0.697156262607708</v>
       </c>
       <c r="G5" t="n">
-        <v>3.13188881829264</v>
+        <v>3.13195147647277</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0017368563495736</v>
+        <v>0.00173648572253706</v>
       </c>
     </row>
     <row r="6">
@@ -520,25 +520,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>0.463553875978523</v>
+        <v>0.463557820936981</v>
       </c>
       <c r="C6" t="n">
-        <v>0.132542503036241</v>
+        <v>0.132540856363936</v>
       </c>
       <c r="D6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2037753436067</v>
+        <v>0.20378251598357</v>
       </c>
       <c r="F6" t="n">
-        <v>0.723332408350347</v>
+        <v>0.723333125890392</v>
       </c>
       <c r="G6" t="n">
-        <v>3.49739793167912</v>
+        <v>3.49747114704107</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000469820456361347</v>
+        <v>0.000469691516640874</v>
       </c>
     </row>
     <row r="7">
@@ -546,25 +546,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0347484047145177</v>
+        <v>0.0347487405968803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0412813433632853</v>
+        <v>0.0412812472969407</v>
       </c>
       <c r="D7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0461615415109532</v>
+        <v>-0.0461610173420149</v>
       </c>
       <c r="F7" t="n">
-        <v>0.115658350939988</v>
+        <v>0.115658498535775</v>
       </c>
       <c r="G7" t="n">
-        <v>0.841745977322581</v>
+        <v>0.841756072604315</v>
       </c>
       <c r="H7" t="n">
-        <v>0.399930156667135</v>
+        <v>0.399924504695688</v>
       </c>
     </row>
   </sheetData>
